--- a/500all/speech_level/speeches_CHRG-114hhrg98890.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98890.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412446</t>
   </si>
   <si>
-    <t>Joseph J. Heck</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Heck. Well, good morning. I want to welcome everyone today to today's Military Personnel Subcommittee's hearing on commissary reform. We are here today to hear from military service organizations and the grocery retail industry on the value of the commissary system to beneficiaries and the effects of any possible changes to the commissary's business model. As we are all well aware, commissary benefits are a valued part of our current and retired service member's compensation package and contribute to their and their family's overall quality of life.    The Military Personnel Subcommittee is taking every opportunity to thoroughly review and discuss the way forward on any commissary reform, and is committed to retaining the commissary benefit while improving the business practices of the commissary system and at the same time reducing its dependence on appropriated funds.    Our purpose today is to gain an understanding from the panel on their views of the possible effects to the beneficiaries or to the business practices of our industry partners of any changes to the commissary system business model.    Before I introduce my panel, I would like to offer Congresswoman Davis an opportunity to make any opening remarks.    [The prepared statement of Dr. Heck can be found in the Appendix on page 27.]</t>
   </si>
   <si>
     <t>400097</t>
   </si>
   <si>
-    <t>Susan A. Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you very much, Mr. Chairman. And thank you to all of our witnesses. Good to see all of you here today. Our panel represents beneficiaries as well as retail industry partners that work with the commissary system.    I think we can all agree that what is paramount in this discussion is that the commissary benefit must be maintained. How that happens, though, and what the system will look like is what we are here to discuss. Change is never easy, we know, but in today's fiscal environment, it is required. This committee certainly has met several times since the release of the Boston Consulting Group [BCG] report, and we have heard from the BCG, as well as the Department of Defense [DOD], on ways to sustain the commissary benefit even when we know and we hear that many feel that the commissary system is just not sustainable as it is currently today.    I was pleased to hear from DOD leadership that they concur with the report. Regardless of how much reform is done to create a more efficient business model, keeping the savings that are realized today for patrons is critical.    As we wait to see what the Department will submit to Congress for this year's NDAA [National Defense Authorization Act], I would encourage all of us, all of you to work with the DOD and help us reform a system that will endure into the future.    I look forward to hearing from our witnesses as we work to responsibly and efficiently protect the commissary benefit for our service members and families.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -76,36 +70,24 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Nixon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Nixon. Thank you, Mr. Chairman, distinguished ranking member, Mrs. Davis, committee members, and staff. It is an honor once again to appear before you representing the member companies of the American Logistics Association and to provide views on commissary reform.    Mr. Chairman, we are always open to new go-to-market strategies, however, we need to play the cards that we actually have been dealt. Until the new FYDP [Future Years Defense Program] is approved, we are facing a $1 billion reduction in commissary funding in 2017. The GAO [Government Accountability Office] review on privatization is supposed to be completed February 1st. We don't know what that is going to say. Until DOD submits its report requested by the 2016 NDAA on key topics to include a new twist, budget neutrality, we do not know the way ahead. But Mr. Chairman, with these negative headwinds, it is not a time to put one's head in the sand, and we are not the association of no. We are, in fact, bolstered by positive indicators.    First, Mr. Chairman, you and Chairman Thornberry have consistently said that the funding levels for defense should be driven by strategy, and not the other way around. As a subset of national defense, this translates directly for resale programs as well. This committee has affirmed its belief in the value of the resale benefit and its commitment to preserving it. It is the next iteration of this evolution taking concepts to practice where we face the most peril.    Mr. Chairman, on the DOD side, there is a new sheriff in town. Peter Levine as the Deputy Chief Management Officer has presented a more tempered view of the way ahead. He has also stated the strategy needs to drive the budget. We also understand that DOD feels the need to conduct a series of pilots to sort out an alternative universe for military resale. This is where we say, proceed with extreme caution.    Mr. Chairman, I have been in this business for a long time and I have concluded that there are three pillars of influence that must be measured in any strategic discussion moving a resale program forward: patron confidence, supplier confidence, and retailer confidence.    Patron confidence in the current business model is rock solid. In the commissary, it is goods at cost with a surcharge. It is the ultimate company store. The patron invests in the system through the surcharge, they build their own stores. It is a brand name business. Items only make it in the system if they have a demonstrated retail presence in the private sector, they only remain in the system if they have a demonstrated customer preference. Its strength is predictability. In a pilot that proposes to change product pricing, whether by store or region, can you improve on the current level of predictability? If you introduced a private label program that requires a retailer to price, position, and promote a product line with artificial customer preference in order to make a profit, can you improve on the current level of predictability? What are you going to tell the patron? This is their store. This is the model they trust.    Supplier confidence is equally important. Brand name goods at cost create a one-of-a-kind business environment. It is the ultimate supply and demand ecology. Patron preference drives what is on the shelf and what stays on the shelf. There are no hidden retail activities like sliding fees, promotional skimming, or advertising pools. Under audited price warranties, the military retailer gets the best pricing from the manufacturer. Manufacturers contribute almost $500 million in costs to offset annually the system through promotional trade spending, stocking, display building, inventory management, and special military events. The introduction of a different pricing model and private label changes the game. What will be the reduction in support from industry if you change the model? What will be the cost to the retailer to develop, position, price, and promote a private label introduction, once again, with artificial patron preference built in? You will be removing proven name brand value items to position private label items to make a profit. What will be the impact on supplier confidence as these pilots proceed?    Finally, there is retailer confidence. First, the exchanges are probably saying, why am I here in this discussion? This is a commissary issue. The fact is the carefully constructed economic ecology and the military resale system is forever interlocked. During the last government shutdown when commissaries were closed, exchanges dropped sales 30 percent. Exchanges are extremely interested in proposed commissary pilots. What if they fail? What will be the impact of patron confidence on their traffic and sales?    On the commissary side, this is uncharted territory. They have done an exceptional job at administering the cherished military benefit, but becoming a retailer is different. They have weathered a government shutdown, employee furloughs, and now they await a privatization study, a budget neutral discussion, and the outlook of a non-appropriated fund workforce. Reminds me of the saying, the beatings will continue until morale improves.    When it is all said and done, these discussions will be critical for preserving this important benefit or moving forward. I commit the resources and expertise of the American Logistics Association to make this move forward successful.    Thank you for this opportunity to participate, and I look forward to our discussions, Mr. Chairman.    [The prepared statement of Mr. Nixon can be found in the Appendix on page 28.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Heck. Thank you, Mr. Nixon.    Mr. Gordy.</t>
   </si>
   <si>
-    <t>Gordy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gordy. Chairman Heck, Ranking Member Davis, and distinguished members of the Personnel Subcommittee, thank you for your commitment to our warriors and their families, who continue to tirelessly serve and sacrifice in defense of our Nation. And thank you for the opportunity to share views on behalf of the Armed Forces Marketing Council regarding efforts to reform the commissary benefit.    As you are aware, to date there are no specific reforms that have been publicly proposed by the DOD since the NDAA was passed and signed into law last month, but from that law, we are very grateful for the committee's work to establish benchmarks for any potential reform efforts, which include ensuring high levels of customer satisfaction, the provision of high-quality products, and the sustainment of discount savings.    As we begin our discussion today, we believe it is helpful to remember that it was Congress who established this benefit as a non-pay compensation benefit for military personnel. The model that Congress forged is one that is as brilliant as it is simple: offering products at cost plus 6 percent to provide military families a non-pay compensation benefit.    While no specific formal proposals have been offered to the committee over the course of the past 2 years, suggestions have been offered for commissary reform by both the Military Compensation and Retirement Modernization Committee and the Boston Consulting Group that would alter the model. The suggestions call for a more complex operational model through untested and under-analyzed pricing schemes and adjustments to product assortment, which will require growth in both personnel and operational costs.    Since it is highly unlikely that appropriations will be increased to cover these costs, the revenue will have to be generated, and it can only come from one source, and that is the military family.    The suggestions that have been offered are based on assumptions that product and pricing schemes are manageable and would still offer a benefit to military families, but even the suggestions have a caveat that they need to be further analyzed. We agree. And we also believe that full spectrum analysis should be conducted on all efforts that would change DeCA's [Defense Commissary Agency's] fundamental mission and seek to generate revenue from military families.    We also believe that accountability for the commissary benefit should remain with Congress. We hope that if the reform test pilots begin to fail to meet established benchmarks, and if the DOD fails to act in an expeditious manner to protect the benefit, that Congress will step in to do so.    We appreciate the committee's approach that permanent changes to title 10 will be based on concepts that are proven to be beneficial and efficacious to the long-term viability of the commissary benefit. Since commissaries are only one part of the military quality-of-life ecosystem on military bases, which also include the military exchanges and MWR [Moral, Welfare, and Recreation] programs, and that there is an interdependent relationship between these three organizations, we agree with Congress that any effort to reform commissaries should weigh the impacts on exchanges and MWR.    While the budgetary pressures of ongoing deficits and the sequester have forced DOD to make painful cuts to numerous programs, we recognize that resale is not immune to the pursuit of efficiencies. We have always held that efficiencies can be achieved within the commissary system, and should occur as long as they do not result in higher prices and diminished benefits for military families.    We agree with DOD's Deputy Chief Management Officer, Peter Levine, that efficiencies should drive the budget, and are encouraged by this new approach within DOD.    As we consider commissary reform, it is important to remember the words of Lee Scott, the former CEO [chief executive officer] and current board member of Walmart, who said, rule number one of retailing is don't aggravate your customer. Unfortunately, some have learned this truth the hard way. Two examples include Walmart's clean store policy and JC Penny's attempt to offer everyday low prices to its customers, both of which resulted in significant sales declines and the firing of senior leaders. They listened to their consultants and even their customer surveys, but the changes ended up aggravating customers, who either purchased less and/or shopped elsewhere. Therefore, we approach reform efforts cautiously due to these recent real world examples which demonstrate how sensitive the retail marketplace is to change.    As BCG discovered, even a 5 percent increase in prices in the commissary would result in 26 percent decrease in traffic. In other words, to generate $143 million in revenue would cost DeCA $1.3 billion in lost sales. That should serve as caution to anyone interested in commissary reform that efforts should be fully analyzed and evaluated and carefully implemented. Thus, reform efforts should be a game of inches, proceeding slowly and only implementing concepts that can be easily reversed if negative effects begin to occur.    Chairman Heck, I look forward to your questions in discussing specific suggestions for reform with you and the committee. I yield back.    [The prepared statement of Mr. Gordy can be found in the Appendix on page 62.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Heck. Thank you.    Ms. Huck.</t>
   </si>
   <si>
-    <t>Huck</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Huck. Chairman Heck, Ranking Member Davis, and members of the subcommittee, thank you for the opportunity to present testimony on the military resale system and its value to military families.    Military families tell us that the commissary is one of their most valued benefits. While we understand and appreciate the need for efficiency and fiscal restraint, we caution against making changes to commissary funding levels or operations that put at risk a benefit many families rely upon.    When discussing the commissary benefit, it is important first to understand what that benefit really is. Our association has argued that the commissary benefit is not just the existence of a brick-and-mortar grocery store on an installation; rather, the benefit is the savings that service members and families see when they shop at the commissary. Those savings are a vital non-pay benefit relied on by many military families, especially junior service members and those families in remote or high-cost locations. Any proposal to alter the commissary operating structure or reduce its funding level must, in our view, also preserve the savings. Those savings are not insignificant.    The Defense Commissary Agency, or DeCA, reports that families who regularly shop at the commissary save 30 percent over civilian grocery stores. We recognize that individual families' level of savings will vary based on their location and shopping habits. However, DeCA's mandate to sell groceries at cost plus 6 percent provides all military families with the assurance that they will be able to put food on the table at a reasonable cost regardless of where they are stationed.    The unique challenges of military life increase the importance of the commissary benefit. Due largely to frequent military-ordered moves, military spouse unemployment rates are far higher than their civilian counterparts. For this reason, many military families must get by on a single income. Many junior families actually qualify for nutrition assistance through the Women, Infants, and Children, or WIC, program. Commissary savings allow those families to stretch their food dollars and help ensure that even the most junior service members can feed their families.    We hear often from military families who tell us how much they value the commissary benefit. When we posted an article on our Web site about recent proposals to cut commissary funding, dozens of military families wrote back to share their experiences with the commissary. One military spouse wrote, ``We are a family of six and have been in the military for 17 years. The commissary is something we have relied on at every duty station we have been. We are currently stationed in Alaska and use the commissary and the exchange on a weekly basis. With the prices in Alaska being higher than what we are used to, the comfort of the commissary made it easier to make sure I have all I need to feed my family.''    Several recent proposals regarding the commissary include plans to reduce the appropriation and use revenues generated by commissary sales to operate the resale system. We ask you to consider, if such a plan is adopted, what would happen if revenues were to decrease. This concern is not unfounded. Last year the Department commissioned the RAND Corporation to study what would be the effects of increased commissary prices. Not surprisingly, RAND found that if prices increased, fewer military families would choose to shop at the commissary, leading to a reduction in commissary revenue. We fear that faced with lower revenues, DeCA would be forced to reduce operating hours, lay off employees, and ultimately close stores in order to cut operating costs.    We are gratified that the DOD has expressed a commitment to preserving commissary savings in its recent factsheet on the resale system. However, much depends on how DOD defines what it calls the tangible and intangible elements of the benefit, and what metrics it uses to ensure its goals are met.    We ask Congress to require transparency from the Department as it develops plans to optimize the resale system. Military families deserve the assurance that any changes to the military resale system prioritize their well-being.    In closing, we note that maximizing revenue has never been a priority for the commissary, nor should it be. The mission of the commissary is to provide military families with a vital non-pay benefit, the savings they realize by shopping there. In our view, DeCA has fulfilled this essential mission effectively and well. Before making any changes to the commissary's operations, we ask that you first consider the impact on military families, who rely on commissary savings to help ensure they are ready and able to support their service member.    Thank you very much for the opportunity.    [The prepared statement of Ms. Huck can be found in the Appendix on page 84.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Heck. Thank you.    Ms. Goldberg.</t>
   </si>
   <si>
-    <t>Goldberg</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Goldberg. Chairman Heck, Ranking Member Davis, and distinguished members of the subcommittee, thank you for holding this hearing on commissary reform.    Your defense of this landmark benefit that has supported military personnel and their families for generations is critical to its continued existence today.    I am pleased to be here to represent more than 390,000 MOAA [Military Officers Association of America] members and as an Air Force spouse of 13 years. I am a regular patron of the commissary and have depended on it during 11 years of my husband's Active service, including 10 deployments for OIF [Operation Iraqi Freedom], and now that he is a reservist.    Repeatedly, advocates come to the Hill to protect this benefit and it has remained protected because of your efforts and support. That support exists because it has intrinsic and real value, and provides a consistent and dependable benefit that would be costly to replace.    Our service members, retirees, wounded warriors, widows, and families know no matter how big or small the town, how far it is from family or familiar surroundings, the commissary will be there. It provides the consistent products, savings, and community they have come to know and rely on from the first day they stepped through the gate.    The amount of money appropriated for the commissary costs taxpayers the equivalent of a 2 percent pay raise to the entire military, but the monetary value to the E-5 with 8 years of service and a family of four is equivalent to a 9 percent pay raise. That amount is higher for the most junior enlisted. Imagine the value it has to an 82-year-old widow on a fixed income, or the wounded warrior and family trying to get back on their feet and find a new normal.    In times of austerity, we should not be looking to cut a benefit that the currently serving, wounded, widows, and retirees so greatly rely upon and earned access to when we can't afford to replace it with something equally good or better.    We are gratified that the Department of Defense has heard the call from patrons and recognized that the savings is the benefit, and higher prices or surcharges will hurt them or make them stop shopping at the commissary altogether.    DOD says it is focused on maintaining the patron benefit. We hope this includes using DeCA's current market basket calculation methods for savings. It is important to not reinvent what patron benefit is. If DOD uses new metrics to determine a current savings levels that will be used as metric going forward, we will not be measuring apples to apples. DeCA currently compares thousands of items in its market basket study against private grocers, and calculates an average savings of 30 percent. When Boston Consulting Group measured just 50 items in their market basket, it found a much lower savings level.    We believe changing the market basket study could result in a reduced benefit by excluding comparison of items commonly purchased by patrons in calculating the savings measured. Therefore, maintaining consistency with previous calculations is imperative to maintaining the benefit that patrons know and rely on.    DeCA has been repeatedly asked to find efficiencies in providing this benefit, and they have done so. However, at some point, we think they will be forced to find them where it will be unpalatable to patrons either through price increases, changes in service, or changes in quality.    The cut to the second destination transportation subsidy in Asia last year recently demonstrated the potential costs passed on to patrons, with a bag of romaine lettuce costing more than $10 in Guam. Those stationed overseas at the pleasure of their government should not be stuck with the bill for shipping resources to their location.    Proposals to merge the commissary and the exchanges are common. Most have not occurred, because it is difficult when businesses use different backroom logistics, different business goals, and operating restrictions. We simply don't know what we don't know. How will this affect product quality, savings, and customer satisfaction levels? If for the worse, how will that affect foot traffic for the exchange, affecting MWR dividends, affecting patron trust, access, and sustainment of support and quality-of-life programs? How will this impact the employment and earning power of approximately 10,000 military-affiliated employees, including more than 4,000 military spouses?    Maintaining the benefit at levels patrons can depend on, provide quality products, customer satisfaction and savings, with accessible hours and service should be the priority, and we thank this committee for outlining those benchmarks in the National Defense Authorization Act. We think those benchmarks are the best metric, which all new proposals should be evaluated against.    Thank you for this opportunity to share the views of MOAA and its members. I am happy to answer any of your questions, and I yield the rest of my time.    [The prepared statement of Ms. Goldberg can be found in the Appendix on page 95.]</t>
   </si>
   <si>
@@ -181,9 +163,6 @@
     <t>412214</t>
   </si>
   <si>
-    <t>Timothy J. Walz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walz. Thank you, Chairman, for holding this. And thank each of you for being here and your testimony of what you do. I think about it, with all the stress of military life, grocery shopping should not be one of them. And thanks to all of you, it hasn't been, and I think that is very important to keep in mind.    I think you started to hit on that, Ms. Goldberg is hitting on it, of all the things involved in it, that there is a strong psychological benefit here, and I think we need to again, I don't say that justify wastefulness where we can find efficiencies; I say it because it is a reality of military life. So I appreciate that. And I think it is probably because of the due diligence of the chairman and the ranking member of thinking about this.    And I don't know if this means anything or not, but since I have been on this committee, I have had more opportunity to look for cost savings in the commissary than the F-35, and that is somewhat--it is a little chip on my shoulder about that. If we are looking for cost savings, there is other places, but I do think it is right to look at these things and ask. And I think you are asking all the right questions with----    Ms. Goldberg, how would you--and I know maybe you can't quantify it. How high would you say, because I am thinking about this, how do we explain to the civilian sector how important the commissary is? How high do your members place the commissary benefit?</t>
   </si>
   <si>
@@ -217,9 +196,6 @@
     <t>412648</t>
   </si>
   <si>
-    <t>Elise M. Stefanik</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Stefanik. Thank you, Mr. Chairman. And thank you to the witnesses for your testimony today.    I want to address my first question to Ms. Huck and Ms. Goldberg to further delve into the impact on military families. So I represent Fort Drum, where the military resale benefit is such an important fabric of the military community.    You, Ms. Goldberg, talked about, very articulately, that the goal should not be maximizing revenue; the benefit are the savings for our military families. What are the secondary and tertiary effects that weren't included in the BCG report or weren't included in the panel today of the impact of this proposed reorganization?</t>
   </si>
   <si>
@@ -244,9 +220,6 @@
     <t xml:space="preserve">    Dr. Heck. Mr. O'Rourke.</t>
   </si>
   <si>
-    <t>O'Rourke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Thank you, Mr. Chairman. This is my fourth or fifth hearing or briefing or roundtable on this issue in addition to the excellent briefing and background work that my staff has done, and I feel like I am just beginning to scratch the surface of an issue that is far more complex than it appeared at the outset.    And, for example, Ms. Goldberg, I have really been looking at the numbers and those things that we can measure, but you brought up a really important point: there is a social dynamic to this, there is a quality-of-life aspect that is perhaps immeasurable. You talked about military families having a secure, consistent place where they can meet and be with each other and share something that is unique to service, and I think that is important and something that needs to factor into our decisions and calculations.    But I would like, with the 4 minutes that remain, for each of you to take a minute--I am probably never going to achieve the depth that you have on this subject. Mr. Gordy, you mentioned that as we move forward, we should look at this as a game of inches. Mr. Nixon, you talked about ensuring that we measure this appropriately as we pilot things. Ms. Huck, you talked about apples to oranges. Can you just take a minute and tell me and the committee what we should be measuring going forward? What are the key measures or metrics, understanding we won't get all the quality-of-life aspects, that will tell us whether the changes that are coming forward are working or not?    And, Mr. Gordy, it looks like you are ready. We will start with you.</t>
   </si>
   <si>
@@ -277,9 +250,6 @@
     <t>412643</t>
   </si>
   <si>
-    <t>Thomas MacArthur</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. MacArthur. Thank you, Mr. Chairman.    Thank you for being here. You have all very ably represented your members, and I was struck by one thing that each of you said. Mr. Nixon, that we need to avoid this trap that the beatings will continue until morale improves; Mr. Gordy, that we should avoid aggravating our customers; Ms. Goldberg, that this is the single highest valued benefit that members identify; and, Ms. Huck, that those overseas at the pleasure of their government should not foot the bill. And I think for me, those are all pretty important measures of how we should approach this.    I would associate myself with some of Mr. Walz's comments, not the F-35 comment, but grocery shopping should not become stressful when we have got a lot of other issues that our military families have to deal with.    And before I pose a question, there are three things I think we should remember. One, we have had these four or five hearings now, and we are talking about how many hundredths of 1 percent of the military budget we can save, and I think we have to keep that perspective. We are talking about a lot of dollars, but relatively a very, very small percentage of our defense budget.    And, two, that the benefit to our service members goes beyond just the commissary benefit. Ms. Goldberg, you have mentioned--and I got your quotes backwards, actually, but you recognized that as I said it. But there are other benefits that come from this commissary benefit than just financial, and there are other benefits to the U.S. economy. It benefits our service members, it also benefits U.S. suppliers, it benefits the U.S. economy, and any changes have downstream effects.    And, thirdly, we are about to consider meaningful changes to the healthcare system of our service members. And there is a compounding effect, I think, when we do too many things at one time, and so I think we need to be very cautious.    And that leads me to this question I would ask each of you. What improvements would you advocate to the system, the commissary system, that would not hurt morale, that would not cause aggravation, that would not be seen as a decline in benefits, and that wouldn't ruin the downstream benefits that you have described? In other words, what changes do you see that cause no harm to this system?</t>
   </si>
   <si>
@@ -311,9 +281,6 @@
   </si>
   <si>
     <t>412271</t>
-  </si>
-  <si>
-    <t>Mike Coffman</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Coffman. Thank you, Mr. Chairman.    Well, I have somewhat of a different view. First of all, let me just say thank you all for supporting our military families. I have 21 years combined military service, Active Duty, enlisted, United States Army, infantry officer of the United States Marine Corps, five overseas deployments.    I support these reforms. And I think that they are not going to compromise the benefit for our families. But they are threatening for the people who run the system, and I understand that, and change is always difficult. And so if you--in your opposition, I really strongly suggest and would love to hear more about your ideas to make this system more efficient. We have got to challenge government everywhere. We have got to challenge government to be more--you know, to be able to deliver services more efficiently, and no area of government ought to be immune from that, and so that is my concern. And I challenge you all to do that.    Mr. Chairman, I yield back.</t>
@@ -748,11 +715,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -772,13 +737,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -800,11 +763,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -826,11 +787,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -850,13 +809,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -878,11 +835,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -902,13 +857,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -930,11 +883,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -954,13 +905,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -982,11 +931,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1006,13 +953,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1034,11 +979,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1058,13 +1001,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
         <v>26</v>
-      </c>
-      <c r="H14" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1086,11 +1027,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1110,13 +1049,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1138,11 +1075,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1162,13 +1097,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1190,11 +1123,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1214,13 +1145,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1242,11 +1171,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1266,13 +1193,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1292,13 +1217,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1318,13 +1241,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1344,13 +1265,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1370,13 +1289,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1396,13 +1313,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1422,13 +1337,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1448,13 +1361,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1474,13 +1385,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1500,13 +1409,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1526,13 +1433,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1552,13 +1457,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1578,13 +1481,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1606,11 +1507,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1630,13 +1529,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>54</v>
-      </c>
-      <c r="G36" t="s">
-        <v>55</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1656,13 +1553,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1682,13 +1577,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>54</v>
-      </c>
-      <c r="G38" t="s">
-        <v>55</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1708,13 +1601,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1734,13 +1625,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>54</v>
-      </c>
-      <c r="G40" t="s">
-        <v>55</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1760,13 +1649,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1786,13 +1673,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>54</v>
-      </c>
-      <c r="G42" t="s">
+        <v>48</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
         <v>55</v>
-      </c>
-      <c r="H42" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1812,13 +1697,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1838,13 +1721,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>54</v>
-      </c>
-      <c r="G44" t="s">
-        <v>55</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1866,11 +1747,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1890,13 +1769,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>66</v>
-      </c>
-      <c r="G46" t="s">
-        <v>67</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1916,13 +1793,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1942,13 +1817,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>66</v>
-      </c>
-      <c r="G48" t="s">
-        <v>67</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1968,13 +1841,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1994,13 +1865,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>66</v>
-      </c>
-      <c r="G50" t="s">
-        <v>67</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2020,13 +1889,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2046,13 +1913,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
+        <v>59</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
         <v>66</v>
-      </c>
-      <c r="G52" t="s">
-        <v>67</v>
-      </c>
-      <c r="H52" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2074,11 +1939,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2098,13 +1961,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s">
-        <v>76</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2124,13 +1985,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2150,13 +2009,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" t="s">
-        <v>76</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2176,13 +2033,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2202,13 +2057,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" t="s">
-        <v>76</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2228,13 +2081,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2254,13 +2105,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2280,13 +2129,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" t="s">
-        <v>76</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2308,11 +2155,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2332,13 +2177,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>86</v>
-      </c>
-      <c r="G63" t="s">
-        <v>87</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2358,13 +2201,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2384,13 +2225,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>86</v>
-      </c>
-      <c r="G65" t="s">
-        <v>87</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2410,13 +2249,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2436,13 +2273,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>86</v>
-      </c>
-      <c r="G67" t="s">
-        <v>87</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2462,13 +2297,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2488,13 +2321,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>86</v>
-      </c>
-      <c r="G69" t="s">
-        <v>87</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2514,13 +2345,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2540,13 +2369,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
+        <v>77</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
         <v>86</v>
-      </c>
-      <c r="G71" t="s">
-        <v>87</v>
-      </c>
-      <c r="H71" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2568,11 +2395,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2592,13 +2417,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>98</v>
-      </c>
-      <c r="G73" t="s">
-        <v>99</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2620,11 +2443,9 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>12</v>
-      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2644,13 +2465,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2672,11 +2491,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2696,13 +2513,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2724,11 +2539,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>12</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2748,13 +2561,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2776,11 +2587,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2800,13 +2609,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2828,11 +2635,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2852,13 +2657,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2880,11 +2683,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98890.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98890.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412446</t>
   </si>
   <si>
+    <t>Heck</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Heck. Well, good morning. I want to welcome everyone today to today's Military Personnel Subcommittee's hearing on commissary reform. We are here today to hear from military service organizations and the grocery retail industry on the value of the commissary system to beneficiaries and the effects of any possible changes to the commissary's business model. As we are all well aware, commissary benefits are a valued part of our current and retired service member's compensation package and contribute to their and their family's overall quality of life.    The Military Personnel Subcommittee is taking every opportunity to thoroughly review and discuss the way forward on any commissary reform, and is committed to retaining the commissary benefit while improving the business practices of the commissary system and at the same time reducing its dependence on appropriated funds.    Our purpose today is to gain an understanding from the panel on their views of the possible effects to the beneficiaries or to the business practices of our industry partners of any changes to the commissary system business model.    Before I introduce my panel, I would like to offer Congresswoman Davis an opportunity to make any opening remarks.    [The prepared statement of Dr. Heck can be found in the Appendix on page 27.]</t>
   </si>
   <si>
     <t>400097</t>
   </si>
   <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you very much, Mr. Chairman. And thank you to all of our witnesses. Good to see all of you here today. Our panel represents beneficiaries as well as retail industry partners that work with the commissary system.    I think we can all agree that what is paramount in this discussion is that the commissary benefit must be maintained. How that happens, though, and what the system will look like is what we are here to discuss. Change is never easy, we know, but in today's fiscal environment, it is required. This committee certainly has met several times since the release of the Boston Consulting Group [BCG] report, and we have heard from the BCG, as well as the Department of Defense [DOD], on ways to sustain the commissary benefit even when we know and we hear that many feel that the commissary system is just not sustainable as it is currently today.    I was pleased to hear from DOD leadership that they concur with the report. Regardless of how much reform is done to create a more efficient business model, keeping the savings that are realized today for patrons is critical.    As we wait to see what the Department will submit to Congress for this year's NDAA [National Defense Authorization Act], I would encourage all of us, all of you to work with the DOD and help us reform a system that will endure into the future.    I look forward to hearing from our witnesses as we work to responsibly and efficiently protect the commissary benefit for our service members and families.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -70,24 +85,36 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Nixon</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Nixon. Thank you, Mr. Chairman, distinguished ranking member, Mrs. Davis, committee members, and staff. It is an honor once again to appear before you representing the member companies of the American Logistics Association and to provide views on commissary reform.    Mr. Chairman, we are always open to new go-to-market strategies, however, we need to play the cards that we actually have been dealt. Until the new FYDP [Future Years Defense Program] is approved, we are facing a $1 billion reduction in commissary funding in 2017. The GAO [Government Accountability Office] review on privatization is supposed to be completed February 1st. We don't know what that is going to say. Until DOD submits its report requested by the 2016 NDAA on key topics to include a new twist, budget neutrality, we do not know the way ahead. But Mr. Chairman, with these negative headwinds, it is not a time to put one's head in the sand, and we are not the association of no. We are, in fact, bolstered by positive indicators.    First, Mr. Chairman, you and Chairman Thornberry have consistently said that the funding levels for defense should be driven by strategy, and not the other way around. As a subset of national defense, this translates directly for resale programs as well. This committee has affirmed its belief in the value of the resale benefit and its commitment to preserving it. It is the next iteration of this evolution taking concepts to practice where we face the most peril.    Mr. Chairman, on the DOD side, there is a new sheriff in town. Peter Levine as the Deputy Chief Management Officer has presented a more tempered view of the way ahead. He has also stated the strategy needs to drive the budget. We also understand that DOD feels the need to conduct a series of pilots to sort out an alternative universe for military resale. This is where we say, proceed with extreme caution.    Mr. Chairman, I have been in this business for a long time and I have concluded that there are three pillars of influence that must be measured in any strategic discussion moving a resale program forward: patron confidence, supplier confidence, and retailer confidence.    Patron confidence in the current business model is rock solid. In the commissary, it is goods at cost with a surcharge. It is the ultimate company store. The patron invests in the system through the surcharge, they build their own stores. It is a brand name business. Items only make it in the system if they have a demonstrated retail presence in the private sector, they only remain in the system if they have a demonstrated customer preference. Its strength is predictability. In a pilot that proposes to change product pricing, whether by store or region, can you improve on the current level of predictability? If you introduced a private label program that requires a retailer to price, position, and promote a product line with artificial customer preference in order to make a profit, can you improve on the current level of predictability? What are you going to tell the patron? This is their store. This is the model they trust.    Supplier confidence is equally important. Brand name goods at cost create a one-of-a-kind business environment. It is the ultimate supply and demand ecology. Patron preference drives what is on the shelf and what stays on the shelf. There are no hidden retail activities like sliding fees, promotional skimming, or advertising pools. Under audited price warranties, the military retailer gets the best pricing from the manufacturer. Manufacturers contribute almost $500 million in costs to offset annually the system through promotional trade spending, stocking, display building, inventory management, and special military events. The introduction of a different pricing model and private label changes the game. What will be the reduction in support from industry if you change the model? What will be the cost to the retailer to develop, position, price, and promote a private label introduction, once again, with artificial patron preference built in? You will be removing proven name brand value items to position private label items to make a profit. What will be the impact on supplier confidence as these pilots proceed?    Finally, there is retailer confidence. First, the exchanges are probably saying, why am I here in this discussion? This is a commissary issue. The fact is the carefully constructed economic ecology and the military resale system is forever interlocked. During the last government shutdown when commissaries were closed, exchanges dropped sales 30 percent. Exchanges are extremely interested in proposed commissary pilots. What if they fail? What will be the impact of patron confidence on their traffic and sales?    On the commissary side, this is uncharted territory. They have done an exceptional job at administering the cherished military benefit, but becoming a retailer is different. They have weathered a government shutdown, employee furloughs, and now they await a privatization study, a budget neutral discussion, and the outlook of a non-appropriated fund workforce. Reminds me of the saying, the beatings will continue until morale improves.    When it is all said and done, these discussions will be critical for preserving this important benefit or moving forward. I commit the resources and expertise of the American Logistics Association to make this move forward successful.    Thank you for this opportunity to participate, and I look forward to our discussions, Mr. Chairman.    [The prepared statement of Mr. Nixon can be found in the Appendix on page 28.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Heck. Thank you, Mr. Nixon.    Mr. Gordy.</t>
   </si>
   <si>
+    <t>Gordy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gordy. Chairman Heck, Ranking Member Davis, and distinguished members of the Personnel Subcommittee, thank you for your commitment to our warriors and their families, who continue to tirelessly serve and sacrifice in defense of our Nation. And thank you for the opportunity to share views on behalf of the Armed Forces Marketing Council regarding efforts to reform the commissary benefit.    As you are aware, to date there are no specific reforms that have been publicly proposed by the DOD since the NDAA was passed and signed into law last month, but from that law, we are very grateful for the committee's work to establish benchmarks for any potential reform efforts, which include ensuring high levels of customer satisfaction, the provision of high-quality products, and the sustainment of discount savings.    As we begin our discussion today, we believe it is helpful to remember that it was Congress who established this benefit as a non-pay compensation benefit for military personnel. The model that Congress forged is one that is as brilliant as it is simple: offering products at cost plus 6 percent to provide military families a non-pay compensation benefit.    While no specific formal proposals have been offered to the committee over the course of the past 2 years, suggestions have been offered for commissary reform by both the Military Compensation and Retirement Modernization Committee and the Boston Consulting Group that would alter the model. The suggestions call for a more complex operational model through untested and under-analyzed pricing schemes and adjustments to product assortment, which will require growth in both personnel and operational costs.    Since it is highly unlikely that appropriations will be increased to cover these costs, the revenue will have to be generated, and it can only come from one source, and that is the military family.    The suggestions that have been offered are based on assumptions that product and pricing schemes are manageable and would still offer a benefit to military families, but even the suggestions have a caveat that they need to be further analyzed. We agree. And we also believe that full spectrum analysis should be conducted on all efforts that would change DeCA's [Defense Commissary Agency's] fundamental mission and seek to generate revenue from military families.    We also believe that accountability for the commissary benefit should remain with Congress. We hope that if the reform test pilots begin to fail to meet established benchmarks, and if the DOD fails to act in an expeditious manner to protect the benefit, that Congress will step in to do so.    We appreciate the committee's approach that permanent changes to title 10 will be based on concepts that are proven to be beneficial and efficacious to the long-term viability of the commissary benefit. Since commissaries are only one part of the military quality-of-life ecosystem on military bases, which also include the military exchanges and MWR [Moral, Welfare, and Recreation] programs, and that there is an interdependent relationship between these three organizations, we agree with Congress that any effort to reform commissaries should weigh the impacts on exchanges and MWR.    While the budgetary pressures of ongoing deficits and the sequester have forced DOD to make painful cuts to numerous programs, we recognize that resale is not immune to the pursuit of efficiencies. We have always held that efficiencies can be achieved within the commissary system, and should occur as long as they do not result in higher prices and diminished benefits for military families.    We agree with DOD's Deputy Chief Management Officer, Peter Levine, that efficiencies should drive the budget, and are encouraged by this new approach within DOD.    As we consider commissary reform, it is important to remember the words of Lee Scott, the former CEO [chief executive officer] and current board member of Walmart, who said, rule number one of retailing is don't aggravate your customer. Unfortunately, some have learned this truth the hard way. Two examples include Walmart's clean store policy and JC Penny's attempt to offer everyday low prices to its customers, both of which resulted in significant sales declines and the firing of senior leaders. They listened to their consultants and even their customer surveys, but the changes ended up aggravating customers, who either purchased less and/or shopped elsewhere. Therefore, we approach reform efforts cautiously due to these recent real world examples which demonstrate how sensitive the retail marketplace is to change.    As BCG discovered, even a 5 percent increase in prices in the commissary would result in 26 percent decrease in traffic. In other words, to generate $143 million in revenue would cost DeCA $1.3 billion in lost sales. That should serve as caution to anyone interested in commissary reform that efforts should be fully analyzed and evaluated and carefully implemented. Thus, reform efforts should be a game of inches, proceeding slowly and only implementing concepts that can be easily reversed if negative effects begin to occur.    Chairman Heck, I look forward to your questions in discussing specific suggestions for reform with you and the committee. I yield back.    [The prepared statement of Mr. Gordy can be found in the Appendix on page 62.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Heck. Thank you.    Ms. Huck.</t>
   </si>
   <si>
+    <t>Huck</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Huck. Chairman Heck, Ranking Member Davis, and members of the subcommittee, thank you for the opportunity to present testimony on the military resale system and its value to military families.    Military families tell us that the commissary is one of their most valued benefits. While we understand and appreciate the need for efficiency and fiscal restraint, we caution against making changes to commissary funding levels or operations that put at risk a benefit many families rely upon.    When discussing the commissary benefit, it is important first to understand what that benefit really is. Our association has argued that the commissary benefit is not just the existence of a brick-and-mortar grocery store on an installation; rather, the benefit is the savings that service members and families see when they shop at the commissary. Those savings are a vital non-pay benefit relied on by many military families, especially junior service members and those families in remote or high-cost locations. Any proposal to alter the commissary operating structure or reduce its funding level must, in our view, also preserve the savings. Those savings are not insignificant.    The Defense Commissary Agency, or DeCA, reports that families who regularly shop at the commissary save 30 percent over civilian grocery stores. We recognize that individual families' level of savings will vary based on their location and shopping habits. However, DeCA's mandate to sell groceries at cost plus 6 percent provides all military families with the assurance that they will be able to put food on the table at a reasonable cost regardless of where they are stationed.    The unique challenges of military life increase the importance of the commissary benefit. Due largely to frequent military-ordered moves, military spouse unemployment rates are far higher than their civilian counterparts. For this reason, many military families must get by on a single income. Many junior families actually qualify for nutrition assistance through the Women, Infants, and Children, or WIC, program. Commissary savings allow those families to stretch their food dollars and help ensure that even the most junior service members can feed their families.    We hear often from military families who tell us how much they value the commissary benefit. When we posted an article on our Web site about recent proposals to cut commissary funding, dozens of military families wrote back to share their experiences with the commissary. One military spouse wrote, ``We are a family of six and have been in the military for 17 years. The commissary is something we have relied on at every duty station we have been. We are currently stationed in Alaska and use the commissary and the exchange on a weekly basis. With the prices in Alaska being higher than what we are used to, the comfort of the commissary made it easier to make sure I have all I need to feed my family.''    Several recent proposals regarding the commissary include plans to reduce the appropriation and use revenues generated by commissary sales to operate the resale system. We ask you to consider, if such a plan is adopted, what would happen if revenues were to decrease. This concern is not unfounded. Last year the Department commissioned the RAND Corporation to study what would be the effects of increased commissary prices. Not surprisingly, RAND found that if prices increased, fewer military families would choose to shop at the commissary, leading to a reduction in commissary revenue. We fear that faced with lower revenues, DeCA would be forced to reduce operating hours, lay off employees, and ultimately close stores in order to cut operating costs.    We are gratified that the DOD has expressed a commitment to preserving commissary savings in its recent factsheet on the resale system. However, much depends on how DOD defines what it calls the tangible and intangible elements of the benefit, and what metrics it uses to ensure its goals are met.    We ask Congress to require transparency from the Department as it develops plans to optimize the resale system. Military families deserve the assurance that any changes to the military resale system prioritize their well-being.    In closing, we note that maximizing revenue has never been a priority for the commissary, nor should it be. The mission of the commissary is to provide military families with a vital non-pay benefit, the savings they realize by shopping there. In our view, DeCA has fulfilled this essential mission effectively and well. Before making any changes to the commissary's operations, we ask that you first consider the impact on military families, who rely on commissary savings to help ensure they are ready and able to support their service member.    Thank you very much for the opportunity.    [The prepared statement of Ms. Huck can be found in the Appendix on page 84.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Heck. Thank you.    Ms. Goldberg.</t>
   </si>
   <si>
+    <t>Goldberg</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Goldberg. Chairman Heck, Ranking Member Davis, and distinguished members of the subcommittee, thank you for holding this hearing on commissary reform.    Your defense of this landmark benefit that has supported military personnel and their families for generations is critical to its continued existence today.    I am pleased to be here to represent more than 390,000 MOAA [Military Officers Association of America] members and as an Air Force spouse of 13 years. I am a regular patron of the commissary and have depended on it during 11 years of my husband's Active service, including 10 deployments for OIF [Operation Iraqi Freedom], and now that he is a reservist.    Repeatedly, advocates come to the Hill to protect this benefit and it has remained protected because of your efforts and support. That support exists because it has intrinsic and real value, and provides a consistent and dependable benefit that would be costly to replace.    Our service members, retirees, wounded warriors, widows, and families know no matter how big or small the town, how far it is from family or familiar surroundings, the commissary will be there. It provides the consistent products, savings, and community they have come to know and rely on from the first day they stepped through the gate.    The amount of money appropriated for the commissary costs taxpayers the equivalent of a 2 percent pay raise to the entire military, but the monetary value to the E-5 with 8 years of service and a family of four is equivalent to a 9 percent pay raise. That amount is higher for the most junior enlisted. Imagine the value it has to an 82-year-old widow on a fixed income, or the wounded warrior and family trying to get back on their feet and find a new normal.    In times of austerity, we should not be looking to cut a benefit that the currently serving, wounded, widows, and retirees so greatly rely upon and earned access to when we can't afford to replace it with something equally good or better.    We are gratified that the Department of Defense has heard the call from patrons and recognized that the savings is the benefit, and higher prices or surcharges will hurt them or make them stop shopping at the commissary altogether.    DOD says it is focused on maintaining the patron benefit. We hope this includes using DeCA's current market basket calculation methods for savings. It is important to not reinvent what patron benefit is. If DOD uses new metrics to determine a current savings levels that will be used as metric going forward, we will not be measuring apples to apples. DeCA currently compares thousands of items in its market basket study against private grocers, and calculates an average savings of 30 percent. When Boston Consulting Group measured just 50 items in their market basket, it found a much lower savings level.    We believe changing the market basket study could result in a reduced benefit by excluding comparison of items commonly purchased by patrons in calculating the savings measured. Therefore, maintaining consistency with previous calculations is imperative to maintaining the benefit that patrons know and rely on.    DeCA has been repeatedly asked to find efficiencies in providing this benefit, and they have done so. However, at some point, we think they will be forced to find them where it will be unpalatable to patrons either through price increases, changes in service, or changes in quality.    The cut to the second destination transportation subsidy in Asia last year recently demonstrated the potential costs passed on to patrons, with a bag of romaine lettuce costing more than $10 in Guam. Those stationed overseas at the pleasure of their government should not be stuck with the bill for shipping resources to their location.    Proposals to merge the commissary and the exchanges are common. Most have not occurred, because it is difficult when businesses use different backroom logistics, different business goals, and operating restrictions. We simply don't know what we don't know. How will this affect product quality, savings, and customer satisfaction levels? If for the worse, how will that affect foot traffic for the exchange, affecting MWR dividends, affecting patron trust, access, and sustainment of support and quality-of-life programs? How will this impact the employment and earning power of approximately 10,000 military-affiliated employees, including more than 4,000 military spouses?    Maintaining the benefit at levels patrons can depend on, provide quality products, customer satisfaction and savings, with accessible hours and service should be the priority, and we thank this committee for outlining those benchmarks in the National Defense Authorization Act. We think those benchmarks are the best metric, which all new proposals should be evaluated against.    Thank you for this opportunity to share the views of MOAA and its members. I am happy to answer any of your questions, and I yield the rest of my time.    [The prepared statement of Ms. Goldberg can be found in the Appendix on page 95.]</t>
   </si>
   <si>
@@ -163,6 +190,12 @@
     <t>412214</t>
   </si>
   <si>
+    <t>Walz</t>
+  </si>
+  <si>
+    <t>Timothy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Walz. Thank you, Chairman, for holding this. And thank each of you for being here and your testimony of what you do. I think about it, with all the stress of military life, grocery shopping should not be one of them. And thanks to all of you, it hasn't been, and I think that is very important to keep in mind.    I think you started to hit on that, Ms. Goldberg is hitting on it, of all the things involved in it, that there is a strong psychological benefit here, and I think we need to again, I don't say that justify wastefulness where we can find efficiencies; I say it because it is a reality of military life. So I appreciate that. And I think it is probably because of the due diligence of the chairman and the ranking member of thinking about this.    And I don't know if this means anything or not, but since I have been on this committee, I have had more opportunity to look for cost savings in the commissary than the F-35, and that is somewhat--it is a little chip on my shoulder about that. If we are looking for cost savings, there is other places, but I do think it is right to look at these things and ask. And I think you are asking all the right questions with----    Ms. Goldberg, how would you--and I know maybe you can't quantify it. How high would you say, because I am thinking about this, how do we explain to the civilian sector how important the commissary is? How high do your members place the commissary benefit?</t>
   </si>
   <si>
@@ -196,6 +229,12 @@
     <t>412648</t>
   </si>
   <si>
+    <t>Stefanik</t>
+  </si>
+  <si>
+    <t>Elise</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Stefanik. Thank you, Mr. Chairman. And thank you to the witnesses for your testimony today.    I want to address my first question to Ms. Huck and Ms. Goldberg to further delve into the impact on military families. So I represent Fort Drum, where the military resale benefit is such an important fabric of the military community.    You, Ms. Goldberg, talked about, very articulately, that the goal should not be maximizing revenue; the benefit are the savings for our military families. What are the secondary and tertiary effects that weren't included in the BCG report or weren't included in the panel today of the impact of this proposed reorganization?</t>
   </si>
   <si>
@@ -220,6 +259,9 @@
     <t xml:space="preserve">    Dr. Heck. Mr. O'Rourke.</t>
   </si>
   <si>
+    <t>O'Rourke</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Thank you, Mr. Chairman. This is my fourth or fifth hearing or briefing or roundtable on this issue in addition to the excellent briefing and background work that my staff has done, and I feel like I am just beginning to scratch the surface of an issue that is far more complex than it appeared at the outset.    And, for example, Ms. Goldberg, I have really been looking at the numbers and those things that we can measure, but you brought up a really important point: there is a social dynamic to this, there is a quality-of-life aspect that is perhaps immeasurable. You talked about military families having a secure, consistent place where they can meet and be with each other and share something that is unique to service, and I think that is important and something that needs to factor into our decisions and calculations.    But I would like, with the 4 minutes that remain, for each of you to take a minute--I am probably never going to achieve the depth that you have on this subject. Mr. Gordy, you mentioned that as we move forward, we should look at this as a game of inches. Mr. Nixon, you talked about ensuring that we measure this appropriately as we pilot things. Ms. Huck, you talked about apples to oranges. Can you just take a minute and tell me and the committee what we should be measuring going forward? What are the key measures or metrics, understanding we won't get all the quality-of-life aspects, that will tell us whether the changes that are coming forward are working or not?    And, Mr. Gordy, it looks like you are ready. We will start with you.</t>
   </si>
   <si>
@@ -250,6 +292,12 @@
     <t>412643</t>
   </si>
   <si>
+    <t>MacArthur</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. MacArthur. Thank you, Mr. Chairman.    Thank you for being here. You have all very ably represented your members, and I was struck by one thing that each of you said. Mr. Nixon, that we need to avoid this trap that the beatings will continue until morale improves; Mr. Gordy, that we should avoid aggravating our customers; Ms. Goldberg, that this is the single highest valued benefit that members identify; and, Ms. Huck, that those overseas at the pleasure of their government should not foot the bill. And I think for me, those are all pretty important measures of how we should approach this.    I would associate myself with some of Mr. Walz's comments, not the F-35 comment, but grocery shopping should not become stressful when we have got a lot of other issues that our military families have to deal with.    And before I pose a question, there are three things I think we should remember. One, we have had these four or five hearings now, and we are talking about how many hundredths of 1 percent of the military budget we can save, and I think we have to keep that perspective. We are talking about a lot of dollars, but relatively a very, very small percentage of our defense budget.    And, two, that the benefit to our service members goes beyond just the commissary benefit. Ms. Goldberg, you have mentioned--and I got your quotes backwards, actually, but you recognized that as I said it. But there are other benefits that come from this commissary benefit than just financial, and there are other benefits to the U.S. economy. It benefits our service members, it also benefits U.S. suppliers, it benefits the U.S. economy, and any changes have downstream effects.    And, thirdly, we are about to consider meaningful changes to the healthcare system of our service members. And there is a compounding effect, I think, when we do too many things at one time, and so I think we need to be very cautious.    And that leads me to this question I would ask each of you. What improvements would you advocate to the system, the commissary system, that would not hurt morale, that would not cause aggravation, that would not be seen as a decline in benefits, and that wouldn't ruin the downstream benefits that you have described? In other words, what changes do you see that cause no harm to this system?</t>
   </si>
   <si>
@@ -281,6 +329,12 @@
   </si>
   <si>
     <t>412271</t>
+  </si>
+  <si>
+    <t>Coffman</t>
+  </si>
+  <si>
+    <t>Mike</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Coffman. Thank you, Mr. Chairman.    Well, I have somewhat of a different view. First of all, let me just say thank you all for supporting our military families. I have 21 years combined military service, Active Duty, enlisted, United States Army, infantry officer of the United States Marine Corps, five overseas deployments.    I support these reforms. And I think that they are not going to compromise the benefit for our families. But they are threatening for the people who run the system, and I understand that, and change is always difficult. And so if you--in your opposition, I really strongly suggest and would love to hear more about your ideas to make this system more efficient. We have got to challenge government everywhere. We have got to challenge government to be more--you know, to be able to deliver services more efficiently, and no area of government ought to be immune from that, and so that is my concern. And I challenge you all to do that.    Mr. Chairman, I yield back.</t>
@@ -665,7 +719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,7 +727,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -695,1997 +749,2341 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
         <v>17</v>
       </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G36" t="s">
+        <v>58</v>
+      </c>
       <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G37" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>48</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G38" t="s">
+        <v>58</v>
+      </c>
       <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G39" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G40" t="s">
+        <v>58</v>
+      </c>
       <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>48</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G42" t="s">
+        <v>58</v>
+      </c>
       <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G43" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>48</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G44" t="s">
+        <v>58</v>
+      </c>
       <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G46" t="s">
+        <v>71</v>
+      </c>
       <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>59</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G48" t="s">
+        <v>71</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G50" t="s">
+        <v>71</v>
+      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G51" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>59</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G52" t="s">
+        <v>71</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
       <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G54" t="s">
+        <v>81</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G55" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G56" t="s">
+        <v>81</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G57" t="s">
+        <v>23</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G58" t="s">
+        <v>81</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G59" t="s">
+        <v>32</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G60" t="s">
+        <v>29</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G61" t="s">
+        <v>81</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
       <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>77</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G63" t="s">
+        <v>92</v>
+      </c>
       <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G64" t="s">
+        <v>23</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>77</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G65" t="s">
+        <v>92</v>
+      </c>
       <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G66" t="s">
+        <v>26</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>77</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G67" t="s">
+        <v>92</v>
+      </c>
       <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G68" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>77</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G69" t="s">
+        <v>92</v>
+      </c>
       <c r="H69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G70" t="s">
+        <v>32</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>77</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G71" t="s">
+        <v>92</v>
+      </c>
       <c r="H71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
       <c r="H72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>88</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G73" t="s">
+        <v>105</v>
+      </c>
       <c r="H73" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
       <c r="H74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>17</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G75" t="s">
+        <v>32</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
       <c r="H76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G77" t="s">
+        <v>29</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>13</v>
+      </c>
       <c r="H78" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>17</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G79" t="s">
+        <v>29</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
       <c r="H80" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G81" t="s">
+        <v>26</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
       <c r="H82" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G83" t="s">
+        <v>17</v>
+      </c>
       <c r="H83" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
       <c r="H84" t="s">
-        <v>100</v>
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98890.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98890.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="124">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412446</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Heck</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400097</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Davis</t>
   </si>
   <si>
@@ -190,6 +199,9 @@
     <t>412214</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Walz</t>
   </si>
   <si>
@@ -290,6 +302,9 @@
   </si>
   <si>
     <t>412643</t>
+  </si>
+  <si>
+    <t>Vice Chair</t>
   </si>
   <si>
     <t>MacArthur</t>
@@ -719,7 +734,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,7 +742,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -752,2338 +767,2516 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
         <v>32</v>
       </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" t="s">
-        <v>32</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G36" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H36" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G38" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" t="s">
-        <v>32</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>35</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G40" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" t="s">
-        <v>23</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G42" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" t="s">
-        <v>23</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G44" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H44" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G46" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H46" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" t="s">
-        <v>32</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>35</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G48" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H48" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G50" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" t="s">
-        <v>23</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G52" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I52" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" t="s">
-        <v>81</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>85</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" t="s">
-        <v>26</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>29</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" t="s">
-        <v>81</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>85</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" t="s">
-        <v>23</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>26</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" t="s">
-        <v>81</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>85</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" t="s">
-        <v>32</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>35</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" t="s">
-        <v>29</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>32</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" t="s">
-        <v>81</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>85</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G63" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H63" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I63" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" t="s">
-        <v>23</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>26</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G65" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H65" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I65" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" t="s">
-        <v>26</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>29</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G67" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H67" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I67" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="J67" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>22</v>
-      </c>
-      <c r="G68" t="s">
-        <v>29</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>32</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G69" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H69" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I69" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" t="s">
-        <v>32</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>35</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G71" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I71" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J71" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G73" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="H73" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I73" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>111</v>
+      </c>
+      <c r="J73" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I74" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J74" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" t="s">
-        <v>32</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>35</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" t="s">
-        <v>29</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>32</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I78" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>22</v>
-      </c>
-      <c r="G79" t="s">
-        <v>29</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>32</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I80" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" t="s">
-        <v>26</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>29</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G83" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H83" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I83" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J83" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I84" t="s">
-        <v>118</v>
+        <v>16</v>
+      </c>
+      <c r="J84" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
